--- a/informe_perdida_salarial/Entrada/base_informe_perdida.xlsx
+++ b/informe_perdida_salarial/Entrada/base_informe_perdida.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Pablo\ATE-INDEC_perdida\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Pablo\ATE_INDEC\observatorio_indec\informe_perdida_salarial\Entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6641177-393C-470F-B9E6-5C6201F30E6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884351FA-87BC-4473-AC06-E70B52CD4473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>periodo</t>
   </si>
@@ -1637,10 +1631,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:A60"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1699,7 +1693,7 @@
         <v>10190.89</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C60" si="0">B3/$B$2*100</f>
+        <f t="shared" ref="C3:C61" si="0">B3/$B$2*100</f>
         <v>100</v>
       </c>
       <c r="D3" s="8">
@@ -3065,7 +3059,7 @@
         <v>449.10582897900957</v>
       </c>
       <c r="G55" s="5">
-        <f>C55/F55*100</f>
+        <f t="shared" ref="G55:G61" si="3">C55/F55*100</f>
         <v>69.770304615253636</v>
       </c>
     </row>
@@ -3090,7 +3084,7 @@
         <v>455.84241641369471</v>
       </c>
       <c r="G56" s="5">
-        <f>C56/F56*100</f>
+        <f t="shared" si="3"/>
         <v>68.739216369708018</v>
       </c>
     </row>
@@ -3115,7 +3109,7 @@
         <v>466.26565657228991</v>
       </c>
       <c r="G57" s="5">
-        <f>C57/F57*100</f>
+        <f t="shared" si="3"/>
         <v>67.202570145745739</v>
       </c>
     </row>
@@ -3140,7 +3134,7 @@
         <v>475.284141936222</v>
       </c>
       <c r="G58" s="5">
-        <f>C58/F58*100</f>
+        <f t="shared" si="3"/>
         <v>65.927405792882993</v>
       </c>
     </row>
@@ -3165,11 +3159,11 @@
         <v>488.11733828764051</v>
       </c>
       <c r="G59" s="5">
-        <f>C59/F59*100</f>
+        <f t="shared" si="3"/>
         <v>64.194094400077802</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
         <v>44075</v>
       </c>
@@ -3190,8 +3184,33 @@
         <v>501.92803441756985</v>
       </c>
       <c r="G60" s="5">
-        <f>C60/F60*100</f>
+        <f t="shared" si="3"/>
         <v>62.427775186359781</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="29">
+        <v>44105</v>
+      </c>
+      <c r="B61" s="30">
+        <v>33886</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="0"/>
+        <v>332.5126657239947</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="5">
+        <v>520.89877085978026</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" si="3"/>
+        <v>63.834411660284594</v>
       </c>
     </row>
     <row r="1048575" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>

--- a/informe_perdida_salarial/Entrada/base_informe_perdida.xlsx
+++ b/informe_perdida_salarial/Entrada/base_informe_perdida.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Pablo\ATE_INDEC\observatorio_indec\informe_perdida_salarial\Entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884351FA-87BC-4473-AC06-E70B52CD4473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11070BF2-288F-4ED4-86AC-74D19390C860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="D0" sheetId="1" r:id="rId1"/>
+    <sheet name="D5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>periodo</t>
   </si>
@@ -50,19 +51,32 @@
   <si>
     <t>y_d0_nominal</t>
   </si>
+  <si>
+    <t>y_d5_nominal</t>
+  </si>
+  <si>
+    <t>y_d5_evol</t>
+  </si>
+  <si>
+    <t>inflacion_jun19</t>
+  </si>
+  <si>
+    <t>inflacion_jun19_indice</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +248,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -371,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -634,8 +663,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="309">
+  <cellStyleXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -948,8 +1063,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,8 +1155,20 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="309" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="309" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="309" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="309">
+  <cellStyles count="310">
     <cellStyle name="20% - Énfasis1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% - Énfasis1 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - Énfasis2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1086,6 +1214,7 @@
     <cellStyle name="Celda de comprobación 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Celda vinculada 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Celda vinculada 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Comma" xfId="309" builtinId="3"/>
     <cellStyle name="Encabezado 4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="Encabezado 4 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="Énfasis1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
@@ -1627,16 +1756,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:G1048566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>42309</v>
       </c>
@@ -1685,7 +1814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>42339</v>
       </c>
@@ -1693,7 +1822,7 @@
         <v>10190.89</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C61" si="0">B3/$B$2*100</f>
+        <f t="shared" ref="C3:C62" si="0">B3/$B$2*100</f>
         <v>100</v>
       </c>
       <c r="D3" s="8">
@@ -1711,7 +1840,7 @@
         <v>96.230721095446683</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
         <v>42370</v>
       </c>
@@ -1737,7 +1866,7 @@
         <v>92.407479410413202</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12">
         <v>42401</v>
       </c>
@@ -1763,7 +1892,7 @@
         <v>88.879445162167684</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12">
         <v>42430</v>
       </c>
@@ -1789,7 +1918,7 @@
         <v>86.02500822639027</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12">
         <v>42461</v>
       </c>
@@ -1815,7 +1944,7 @@
         <v>80.740603477562615</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12">
         <v>42491</v>
       </c>
@@ -1841,7 +1970,7 @@
         <v>77.491111263154096</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
         <v>42522</v>
       </c>
@@ -1867,7 +1996,7 @@
         <v>82.316639221105262</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
         <v>42552</v>
       </c>
@@ -1893,7 +2022,7 @@
         <v>88.216321508441126</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>42583</v>
       </c>
@@ -1919,7 +2048,7 @@
         <v>98.558367914404755</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>42614</v>
       </c>
@@ -1945,7 +2074,7 @@
         <v>97.438657610240625</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>42644</v>
       </c>
@@ -1971,7 +2100,7 @@
         <v>95.192743186061222</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>42675</v>
       </c>
@@ -1997,7 +2126,7 @@
         <v>93.67665844699691</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>42705</v>
       </c>
@@ -2023,7 +2152,7 @@
         <v>103.74852990629995</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>42736</v>
       </c>
@@ -2049,7 +2178,7 @@
         <v>91.122969694549298</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>42767</v>
       </c>
@@ -2075,7 +2204,7 @@
         <v>89.276628498137882</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>42795</v>
       </c>
@@ -2101,7 +2230,7 @@
         <v>87.206188126675272</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>42826</v>
       </c>
@@ -2127,7 +2256,7 @@
         <v>84.95005882343024</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>42856</v>
       </c>
@@ -2153,7 +2282,7 @@
         <v>83.748477335993314</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="15">
         <v>42887</v>
       </c>
@@ -2179,7 +2308,7 @@
         <v>86.896856934429721</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15">
         <v>42917</v>
       </c>
@@ -2205,7 +2334,7 @@
         <v>89.48175681806562</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="15">
         <v>42948</v>
       </c>
@@ -2231,7 +2360,7 @@
         <v>96.29045195904169</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="12">
         <v>42979</v>
       </c>
@@ -2257,7 +2386,7 @@
         <v>94.339507225526575</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="12">
         <v>43009</v>
       </c>
@@ -2283,7 +2412,7 @@
         <v>92.931838294274513</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="12">
         <v>43040</v>
       </c>
@@ -2309,7 +2438,7 @@
         <v>91.671282126129299</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>43070</v>
       </c>
@@ -2335,7 +2464,7 @@
         <v>88.878735384652089</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="9">
         <v>43101</v>
       </c>
@@ -2361,7 +2490,7 @@
         <v>87.343796019400827</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="12">
         <v>43132</v>
       </c>
@@ -2387,7 +2516,7 @@
         <v>85.28082378190544</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="18">
         <v>43160</v>
       </c>
@@ -2413,7 +2542,7 @@
         <v>84.164548098472551</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="18">
         <v>43191</v>
       </c>
@@ -2439,7 +2568,7 @@
         <v>82.732996649126065</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="18">
         <v>43221</v>
       </c>
@@ -2465,7 +2594,7 @@
         <v>81.846655168136181</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="19">
         <v>43252</v>
       </c>
@@ -2491,7 +2620,7 @@
         <v>91.542282077820303</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15">
         <v>43282</v>
       </c>
@@ -2517,7 +2646,7 @@
         <v>84.35360919557435</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="15">
         <v>43313</v>
       </c>
@@ -2543,7 +2672,7 @@
         <v>85.656770143444859</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="20">
         <v>43344</v>
       </c>
@@ -2569,7 +2698,7 @@
         <v>80.405554956944684</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="12">
         <v>43374</v>
       </c>
@@ -2595,7 +2724,7 @@
         <v>84.074126820374047</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="12">
         <v>43405</v>
       </c>
@@ -2621,7 +2750,7 @@
         <v>89.048062888470326</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>43435</v>
       </c>
@@ -2647,7 +2776,7 @@
         <v>90.494540434143232</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="21">
         <v>43466</v>
       </c>
@@ -2673,7 +2802,7 @@
         <v>73.101015698193493</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="22">
         <v>43497</v>
       </c>
@@ -2699,7 +2828,7 @@
         <v>73.38649896728306</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="22">
         <v>43525</v>
       </c>
@@ -2725,7 +2854,7 @@
         <v>70.092167112973286</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="22">
         <v>43556</v>
       </c>
@@ -2751,7 +2880,7 @@
         <v>67.771348505845467</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="22">
         <v>43586</v>
       </c>
@@ -2777,7 +2906,7 @@
         <v>65.759713049162372</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="22">
         <v>43617</v>
       </c>
@@ -2803,7 +2932,7 @@
         <v>68.183027320734951</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="22">
         <v>43647</v>
       </c>
@@ -2829,7 +2958,7 @@
         <v>71.20094205670992</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="22">
         <v>43678</v>
       </c>
@@ -2855,7 +2984,7 @@
         <v>86.960923458818883</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="22">
         <v>43709</v>
       </c>
@@ -2881,7 +3010,7 @@
         <v>68.773326515388845</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="22">
         <v>43739</v>
       </c>
@@ -2907,7 +3036,7 @@
         <v>66.580509363418628</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="24">
         <v>43770</v>
       </c>
@@ -2933,7 +3062,7 @@
         <v>63.863416482079749</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="27">
         <v>43800</v>
       </c>
@@ -2959,7 +3088,7 @@
         <v>73.511847692927347</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="21">
         <v>43831</v>
       </c>
@@ -2985,7 +3114,7 @@
         <v>62.753264208566485</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="29">
         <v>43862</v>
       </c>
@@ -3011,7 +3140,7 @@
         <v>70.890343808894144</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="29">
         <v>43891</v>
       </c>
@@ -3037,7 +3166,7 @@
         <v>70.814467870693818</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="29">
         <v>43922</v>
       </c>
@@ -3059,11 +3188,11 @@
         <v>449.10582897900957</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" ref="G55:G61" si="3">C55/F55*100</f>
+        <f t="shared" ref="G55:G62" si="3">C55/F55*100</f>
         <v>69.770304615253636</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="29">
         <v>43952</v>
       </c>
@@ -3088,7 +3217,7 @@
         <v>68.739216369708018</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="29">
         <v>43983</v>
       </c>
@@ -3113,7 +3242,7 @@
         <v>67.202570145745739</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="29">
         <v>44013</v>
       </c>
@@ -3138,7 +3267,7 @@
         <v>65.927405792882993</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="29">
         <v>44044</v>
       </c>
@@ -3163,7 +3292,7 @@
         <v>64.194094400077802</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="29">
         <v>44075</v>
       </c>
@@ -3188,7 +3317,7 @@
         <v>62.427775186359781</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="29">
         <v>44105</v>
       </c>
@@ -3213,9 +3342,657 @@
         <v>63.834411660284594</v>
       </c>
     </row>
-    <row r="1048575" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="1048576" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D1048576" s="11"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62" s="29">
+        <v>44136</v>
+      </c>
+      <c r="B62" s="30">
+        <v>33886</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="0"/>
+        <v>332.5126657239947</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="5">
+        <v>537.26284122596178</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" si="3"/>
+        <v>61.890129040982131</v>
+      </c>
+    </row>
+    <row r="1048565" spans="4:4" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="1048566" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D1048566" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEC20B7-C21E-4A31-A031-B433C604527B}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="20.53515625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="20.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="35">
+        <v>43617</v>
+      </c>
+      <c r="B2" s="31">
+        <v>27741.77</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/$B$2*100</f>
+        <v>100</v>
+      </c>
+      <c r="D2" s="38">
+        <v>225.53700000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2/F2*100</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2/$D$2*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="36">
+        <v>43647</v>
+      </c>
+      <c r="B3" s="32">
+        <v>29606.39</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C25" si="0">B3/$B$2*100</f>
+        <v>106.72134474476573</v>
+      </c>
+      <c r="D3" s="39">
+        <v>230.494</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E25" si="1">C3/F3*100</f>
+        <v>104.4261973400619</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F25" si="2">D3/$D$2*100</f>
+        <v>102.1978655386921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="36">
+        <v>43678</v>
+      </c>
+      <c r="B4" s="32">
+        <v>31477.34</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46550706750148</v>
+      </c>
+      <c r="D4" s="39">
+        <v>239.60769999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>106.80236932069829</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>106.23875461675911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="36">
+        <v>43709</v>
+      </c>
+      <c r="B5" s="32">
+        <v>31477.34</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46550706750148</v>
+      </c>
+      <c r="D5" s="39">
+        <v>253.71019999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>100.86575182031736</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>112.4916089156103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="36">
+        <v>43739</v>
+      </c>
+      <c r="B6" s="32">
+        <v>31477.34</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46550706750148</v>
+      </c>
+      <c r="D6" s="39">
+        <v>262.06610000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>97.649677190155757</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>116.19649990910584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="36">
+        <v>43770</v>
+      </c>
+      <c r="B7" s="32">
+        <v>31477.34</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46550706750148</v>
+      </c>
+      <c r="D7" s="39">
+        <v>273.2158</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>93.664678497667708</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>121.140123350049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="36">
+        <v>43800</v>
+      </c>
+      <c r="B8" s="33">
+        <v>36477.339999999997</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>131.4888703929129</v>
+      </c>
+      <c r="D8" s="39">
+        <v>283.44420000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>104.62590295305529</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>125.67525505792842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="36">
+        <v>43831</v>
+      </c>
+      <c r="B9" s="32">
+        <v>32811.01</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>118.27295086074176</v>
+      </c>
+      <c r="D9" s="39">
+        <v>289.82990000000001</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>92.036489396984635</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>128.50658650243639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="36">
+        <v>43862</v>
+      </c>
+      <c r="B10" s="32">
+        <v>37144.69</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>133.89444869595559</v>
+      </c>
+      <c r="D10" s="39">
+        <v>295.666</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>102.1360328057326</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>131.09423287531536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="36">
+        <v>43891</v>
+      </c>
+      <c r="B11" s="32">
+        <v>38144.69</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>137.49912136103791</v>
+      </c>
+      <c r="D11" s="39">
+        <v>305.55149999999998</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>101.49234853831321</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>135.47732744516418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36">
+        <v>43922</v>
+      </c>
+      <c r="B12" s="32">
+        <v>38144.69</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>137.49912136103791</v>
+      </c>
+      <c r="D12" s="39">
+        <v>310.12430000000001</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>99.995838231329842</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>137.50484399455522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="36">
+        <v>43952</v>
+      </c>
+      <c r="B13" s="32">
+        <v>38144.69</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>137.49912136103791</v>
+      </c>
+      <c r="D13" s="39">
+        <v>314.90870000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>98.476603963003896</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>139.62618107006833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="36">
+        <v>43983</v>
+      </c>
+      <c r="B14" s="32">
+        <v>38144.69</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>137.49912136103791</v>
+      </c>
+      <c r="D14" s="39">
+        <v>321.97379999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>96.315723001077757</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>142.75874911876986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="36">
+        <v>44013</v>
+      </c>
+      <c r="B15" s="32">
+        <v>38144.69</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>137.49912136103791</v>
+      </c>
+      <c r="D15" s="39">
+        <v>328.20139999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>94.488138485711531</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>145.51998120042387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="36">
+        <v>44044</v>
+      </c>
+      <c r="B16" s="32">
+        <v>38144.69</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>137.49912136103791</v>
+      </c>
+      <c r="D16" s="39">
+        <v>337.06319999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>92.003930818921802</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>149.44918128732758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="36">
+        <v>44075</v>
+      </c>
+      <c r="B17" s="32">
+        <v>38144.69</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>137.49912136103791</v>
+      </c>
+      <c r="D17" s="39">
+        <v>346.6207</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>89.467072608197967</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>153.68684517396258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36">
+        <v>44105</v>
+      </c>
+      <c r="B18" s="32">
+        <v>40533.94</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>146.11158552608578</v>
+      </c>
+      <c r="D18" s="39">
+        <v>359.65699999999998</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>91.624988988944494</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>159.46696107512292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="36">
+        <v>44136</v>
+      </c>
+      <c r="B19" s="32">
+        <v>40533.94</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>146.11158552608578</v>
+      </c>
+      <c r="D19" s="39">
+        <v>371.02109999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>88.818583807758657</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>164.50564652363028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="36">
+        <v>44166</v>
+      </c>
+      <c r="B20" s="32">
+        <v>44533.94</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>160.53027618641494</v>
+      </c>
+      <c r="D20" s="40">
+        <f>D19*1.03</f>
+        <v>382.15173299999998</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>94.741208200292178</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>169.44081591933917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36">
+        <v>44197</v>
+      </c>
+      <c r="B21" s="32">
+        <v>40533.94</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>146.11158552608578</v>
+      </c>
+      <c r="D21" s="40">
+        <f t="shared" ref="D21:D22" si="3">D20*1.03</f>
+        <v>393.61628499</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>83.72003375224682</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>174.52404039691936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="36">
+        <v>44228</v>
+      </c>
+      <c r="B22" s="32">
+        <v>41899.727600000006</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>151.03480275411411</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" si="3"/>
+        <v>405.42477353970003</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>84.020362178037999</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>179.75976160882695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="36">
+        <v>44256</v>
+      </c>
+      <c r="B23" s="32">
+        <v>43948.409000000007</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>158.41962859615666</v>
+      </c>
+      <c r="D23" s="40">
+        <f>D22*1.02</f>
+        <v>413.53326901049405</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>86.400515876715815</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="2"/>
+        <v>183.35495684100349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36">
+        <v>44287</v>
+      </c>
+      <c r="B24" s="32">
+        <v>43948.409000000007</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>158.41962859615666</v>
+      </c>
+      <c r="D24" s="40">
+        <f>D23*1.02</f>
+        <v>421.80393439070394</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>84.706388114427284</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>187.02205597782356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="37">
+        <v>44317</v>
+      </c>
+      <c r="B25" s="34">
+        <v>46679.984200000006</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>168.26606305221335</v>
+      </c>
+      <c r="D25" s="41">
+        <f>D24*1.02</f>
+        <v>430.24001307851802</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>88.207098152168385</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>190.76249709738002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="29"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="29"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/informe_perdida_salarial/Entrada/base_informe_perdida.xlsx
+++ b/informe_perdida_salarial/Entrada/base_informe_perdida.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Pablo\ATE_INDEC\observatorio_indec\informe_perdida_salarial\Entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11070BF2-288F-4ED4-86AC-74D19390C860}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDDC5B8-A177-44E9-93D1-9E648E55F933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D0" sheetId="1" r:id="rId1"/>
-    <sheet name="D5" sheetId="2" r:id="rId2"/>
+    <sheet name="E5" sheetId="3" r:id="rId2"/>
+    <sheet name="D5" sheetId="2" r:id="rId3"/>
+    <sheet name="C5" sheetId="5" r:id="rId4"/>
+    <sheet name="B5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>periodo</t>
   </si>
@@ -62,6 +65,24 @@
   </si>
   <si>
     <t>inflacion_jun19_indice</t>
+  </si>
+  <si>
+    <t>y_e5_nominal</t>
+  </si>
+  <si>
+    <t>y_e5_evol</t>
+  </si>
+  <si>
+    <t>y_c5_nominal</t>
+  </si>
+  <si>
+    <t>y_c5_evol</t>
+  </si>
+  <si>
+    <t>y_b5_nominal</t>
+  </si>
+  <si>
+    <t>y_b5_evol</t>
   </si>
 </sst>
 </file>
@@ -400,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -749,6 +770,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1065,7 +1123,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1167,6 +1225,11 @@
     <xf numFmtId="164" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="310">
     <cellStyle name="20% - Énfasis1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1758,9 +1821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1048566"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3377,12 +3440,610 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94470D22-5E2D-4DCA-827B-D838B6EA73C8}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="15.15234375" customWidth="1"/>
+    <col min="4" max="4" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.15234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="35">
+        <v>43617</v>
+      </c>
+      <c r="B2" s="43">
+        <v>21905.5</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/$B$2*100</f>
+        <v>100</v>
+      </c>
+      <c r="D2" s="38">
+        <v>225.53700000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2/F2*100</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2/$D$2*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="36">
+        <v>43647</v>
+      </c>
+      <c r="B3" s="44">
+        <v>23377.84</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C25" si="0">B3/$B$2*100</f>
+        <v>106.72132569446029</v>
+      </c>
+      <c r="D3" s="39">
+        <v>230.494</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E25" si="1">C3/F3*100</f>
+        <v>104.42617869945201</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F25" si="2">D3/$D$2*100</f>
+        <v>102.1978655386921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="36">
+        <v>43678</v>
+      </c>
+      <c r="B4" s="44">
+        <v>24855.18</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46547670676314</v>
+      </c>
+      <c r="D4" s="39">
+        <v>239.60769999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>106.80234074286111</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>106.23875461675911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="36">
+        <v>43709</v>
+      </c>
+      <c r="B5" s="44">
+        <v>24855.18</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46547670676314</v>
+      </c>
+      <c r="D5" s="39">
+        <v>253.71019999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>100.86572483098134</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>112.4916089156103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="36">
+        <v>43739</v>
+      </c>
+      <c r="B6" s="44">
+        <v>24855.18</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46547670676314</v>
+      </c>
+      <c r="D6" s="39">
+        <v>262.06610000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>97.649651061366711</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>116.19649990910584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="36">
+        <v>43770</v>
+      </c>
+      <c r="B7" s="44">
+        <v>24855.18</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46547670676314</v>
+      </c>
+      <c r="D7" s="39">
+        <v>273.2158</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>93.6646534351719</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>121.140123350049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="36">
+        <v>43800</v>
+      </c>
+      <c r="B8" s="44">
+        <v>29855.18</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>136.29079454931409</v>
+      </c>
+      <c r="D8" s="39">
+        <v>283.44420000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>108.44680162892256</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>125.67525505792842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="36">
+        <v>43831</v>
+      </c>
+      <c r="B9" s="44">
+        <v>25908.28</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>118.27294515076122</v>
+      </c>
+      <c r="D9" s="39">
+        <v>289.82990000000001</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>92.036484953647772</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>128.50658650243639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="36">
+        <v>43862</v>
+      </c>
+      <c r="B10" s="44">
+        <v>29961.38</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>136.77560430028987</v>
+      </c>
+      <c r="D10" s="39">
+        <v>295.666</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>104.33380729294026</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>131.09423287531536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="36">
+        <v>43891</v>
+      </c>
+      <c r="B11" s="44">
+        <v>30961.38</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>141.3406678688001</v>
+      </c>
+      <c r="D11" s="39">
+        <v>305.55149999999998</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>104.32791267307009</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>135.47732744516418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36">
+        <v>43922</v>
+      </c>
+      <c r="B12" s="44">
+        <v>30961.38</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>141.3406678688001</v>
+      </c>
+      <c r="D12" s="39">
+        <v>310.12430000000001</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>102.78959181568669</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>137.50484399455522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="36">
+        <v>43952</v>
+      </c>
+      <c r="B13" s="44">
+        <v>30961.38</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>141.3406678688001</v>
+      </c>
+      <c r="D13" s="39">
+        <v>314.90870000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>101.22791211905408</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>139.62618107006833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="36">
+        <v>43983</v>
+      </c>
+      <c r="B14" s="44">
+        <v>30961.38</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>141.3406678688001</v>
+      </c>
+      <c r="D14" s="39">
+        <v>321.97379999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>99.006658955249065</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>142.75874911876986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="36">
+        <v>44013</v>
+      </c>
+      <c r="B15" s="44">
+        <v>30961.38</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>141.3406678688001</v>
+      </c>
+      <c r="D15" s="39">
+        <v>328.20139999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>97.128014106964713</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>145.51998120042387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="36">
+        <v>44044</v>
+      </c>
+      <c r="B16" s="44">
+        <v>30961.38</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>141.3406678688001</v>
+      </c>
+      <c r="D16" s="39">
+        <v>337.06319999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>94.574400910943609</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>149.44918128732758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="36">
+        <v>44075</v>
+      </c>
+      <c r="B17" s="44">
+        <v>30961.38</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>141.3406678688001</v>
+      </c>
+      <c r="D17" s="39">
+        <v>346.6207</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>91.966666183310934</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>153.68684517396258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36">
+        <v>44105</v>
+      </c>
+      <c r="B18" s="44">
+        <v>32847.979999999996</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>149.95311679715138</v>
+      </c>
+      <c r="D18" s="39">
+        <v>359.65699999999998</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>94.033971542550631</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>159.46696107512292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="36">
+        <v>44136</v>
+      </c>
+      <c r="B19" s="44">
+        <v>32847.979999999996</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>149.95311679715138</v>
+      </c>
+      <c r="D19" s="39">
+        <v>371.02109999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>91.153781019675506</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>164.50564652363028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="36">
+        <v>44166</v>
+      </c>
+      <c r="B20" s="44">
+        <v>36847.979999999996</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>168.21337107119214</v>
+      </c>
+      <c r="D20" s="40">
+        <f>D19*1.03</f>
+        <v>382.15173299999998</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>99.275590806449287</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>169.44081591933917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36">
+        <v>44197</v>
+      </c>
+      <c r="B21" s="44">
+        <v>32847.979999999996</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>149.95311679715138</v>
+      </c>
+      <c r="D21" s="40">
+        <f t="shared" ref="D21:D22" si="3">D20*1.03</f>
+        <v>393.61628499</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>85.921181091220205</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>174.52404039691936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="36">
+        <v>44228</v>
+      </c>
+      <c r="B22" s="44">
+        <v>33926.435199999993</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>154.87633334094173</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" si="3"/>
+        <v>405.42477353970003</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>86.157398048828213</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>179.75976160882695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="36">
+        <v>44256</v>
+      </c>
+      <c r="B23" s="44">
+        <v>35544.117999999995</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>162.26115815662732</v>
+      </c>
+      <c r="D23" s="40">
+        <f>D22*1.02</f>
+        <v>413.53326901049405</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>88.495648523607855</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="2"/>
+        <v>183.35495684100349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36">
+        <v>44287</v>
+      </c>
+      <c r="B24" s="44">
+        <v>35544.120000000003</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>162.26116728675447</v>
+      </c>
+      <c r="D24" s="40">
+        <f>D23*1.02</f>
+        <v>421.80393439070394</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>86.76044461087244</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>187.02205597782356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="37">
+        <v>44317</v>
+      </c>
+      <c r="B25" s="45">
+        <v>37701.030400000003</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>172.10760037433522</v>
+      </c>
+      <c r="D25" s="41">
+        <f>D24*1.02</f>
+        <v>430.24001307851802</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>90.220878313664613</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>190.76249709738002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEC20B7-C21E-4A31-A031-B433C604527B}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3997,4 +4658,1200 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37190119-5750-44A5-AE00-FCC009D42609}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="15.15234375" customWidth="1"/>
+    <col min="4" max="4" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.15234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="35">
+        <v>43617</v>
+      </c>
+      <c r="B2" s="46">
+        <v>33599.99</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/$B$2*100</f>
+        <v>100</v>
+      </c>
+      <c r="D2" s="38">
+        <v>225.53700000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2/F2*100</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2/$D$2*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="36">
+        <v>43647</v>
+      </c>
+      <c r="B3" s="33">
+        <v>35858.36</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C25" si="0">B3/$B$2*100</f>
+        <v>106.72134128611349</v>
+      </c>
+      <c r="D3" s="39">
+        <v>230.494</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E25" si="1">C3/F3*100</f>
+        <v>104.42619395579138</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F25" si="2">D3/$D$2*100</f>
+        <v>102.1978655386921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="36">
+        <v>43678</v>
+      </c>
+      <c r="B4" s="33">
+        <v>38124.39</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46548019805959</v>
+      </c>
+      <c r="D4" s="39">
+        <v>239.60769999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>106.802344029135</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>106.23875461675911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="36">
+        <v>43709</v>
+      </c>
+      <c r="B5" s="33">
+        <v>38124.39</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46548019805959</v>
+      </c>
+      <c r="D5" s="39">
+        <v>253.71019999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>100.86572793458744</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>112.4916089156103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="36">
+        <v>43739</v>
+      </c>
+      <c r="B6" s="33">
+        <v>38124.39</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46548019805959</v>
+      </c>
+      <c r="D6" s="39">
+        <v>262.06610000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>97.649654066015273</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>116.19649990910584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="36">
+        <v>43770</v>
+      </c>
+      <c r="B7" s="33">
+        <v>38124.39</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46548019805959</v>
+      </c>
+      <c r="D7" s="39">
+        <v>273.2158</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>93.664656317203338</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>121.140123350049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="36">
+        <v>43800</v>
+      </c>
+      <c r="B8" s="33">
+        <v>43124.39</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>128.34643700786816</v>
+      </c>
+      <c r="D8" s="39">
+        <v>283.44420000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>102.12546371893853</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>125.67525505792842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="36">
+        <v>43831</v>
+      </c>
+      <c r="B9" s="33">
+        <v>39739.699999999997</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>118.27295186694995</v>
+      </c>
+      <c r="D9" s="39">
+        <v>289.82990000000001</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>92.03649017998589</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>128.50658650243639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="36">
+        <v>43862</v>
+      </c>
+      <c r="B10" s="33">
+        <v>44355.01</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>132.00899762172548</v>
+      </c>
+      <c r="D10" s="39">
+        <v>295.666</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>100.69779175357026</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>131.09423287531536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="36">
+        <v>43891</v>
+      </c>
+      <c r="B11" s="33">
+        <v>45356.01</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>134.98816517504918</v>
+      </c>
+      <c r="D11" s="39">
+        <v>305.55149999999998</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>99.638934219223501</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>135.47732744516418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36">
+        <v>43922</v>
+      </c>
+      <c r="B12" s="33">
+        <v>45356.01</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>134.98816517504918</v>
+      </c>
+      <c r="D12" s="39">
+        <v>310.12430000000001</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>98.169752609147579</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>137.50484399455522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="36">
+        <v>43952</v>
+      </c>
+      <c r="B13" s="33">
+        <v>45356.01</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>134.98816517504918</v>
+      </c>
+      <c r="D13" s="39">
+        <v>314.90870000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>96.678262013990292</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>139.62618107006833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="36">
+        <v>43983</v>
+      </c>
+      <c r="B14" s="33">
+        <v>45356.01</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>134.98816517504918</v>
+      </c>
+      <c r="D14" s="39">
+        <v>321.97379999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>94.556842230905332</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>142.75874911876986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="36">
+        <v>44013</v>
+      </c>
+      <c r="B15" s="33">
+        <v>45356.01</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>134.98816517504918</v>
+      </c>
+      <c r="D15" s="39">
+        <v>328.20139999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>92.762632362583048</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>145.51998120042387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="36">
+        <v>44044</v>
+      </c>
+      <c r="B16" s="33">
+        <v>45356.01</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>134.98816517504918</v>
+      </c>
+      <c r="D16" s="39">
+        <v>337.06319999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>90.323790342835011</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>149.44918128732758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="36">
+        <v>44075</v>
+      </c>
+      <c r="B17" s="33">
+        <v>45356.01</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>134.98816517504918</v>
+      </c>
+      <c r="D17" s="39">
+        <v>346.6207</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>87.833259263180381</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>153.68684517396258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36">
+        <v>44105</v>
+      </c>
+      <c r="B18" s="33">
+        <v>48248.79</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>143.59763202310478</v>
+      </c>
+      <c r="D18" s="39">
+        <v>359.65699999999998</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>90.048516040546929</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>159.46696107512292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="36">
+        <v>44136</v>
+      </c>
+      <c r="B19" s="33">
+        <v>48248.79</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>143.59763202310478</v>
+      </c>
+      <c r="D19" s="39">
+        <v>371.02109999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>87.290397051798351</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>164.50564652363028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="36">
+        <v>44166</v>
+      </c>
+      <c r="B20" s="33">
+        <v>52248.79</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>155.50239747095165</v>
+      </c>
+      <c r="D20" s="40">
+        <f>D19*1.03</f>
+        <v>382.15173299999998</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>91.773871972486958</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>169.44081591933917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36">
+        <v>44197</v>
+      </c>
+      <c r="B21" s="33">
+        <v>48248.79</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>143.59763202310478</v>
+      </c>
+      <c r="D21" s="40">
+        <f t="shared" ref="D21:D22" si="3">D20*1.03</f>
+        <v>393.61628499</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>82.279571167686257</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>174.52404039691936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="36">
+        <v>44228</v>
+      </c>
+      <c r="B22" s="33">
+        <v>49903.030400000003</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>148.52096801219287</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" si="3"/>
+        <v>405.42477353970003</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>82.621920880929707</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>179.75976160882695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="36">
+        <v>44256</v>
+      </c>
+      <c r="B23" s="33">
+        <v>52384.391000000003</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>155.90597199582501</v>
+      </c>
+      <c r="D23" s="40">
+        <f>D22*1.02</f>
+        <v>413.53326901049405</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>85.029592153878397</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="2"/>
+        <v>183.35495684100349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36">
+        <v>44287</v>
+      </c>
+      <c r="B24" s="33">
+        <v>52384.39</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>155.90596901963366</v>
+      </c>
+      <c r="D24" s="40">
+        <f>D23*1.02</f>
+        <v>421.80393439070394</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>83.362343657541899</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>187.02205597782356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="37">
+        <v>44317</v>
+      </c>
+      <c r="B25" s="47">
+        <v>55692.870799999997</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>165.75264099780981</v>
+      </c>
+      <c r="D25" s="41">
+        <f>D24*1.02</f>
+        <v>430.24001307851802</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>86.889532020120683</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>190.76249709738002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05CB5E3-7321-4B1A-A10D-B4E7E7141D9D}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="15.15234375" customWidth="1"/>
+    <col min="4" max="4" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.15234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="35">
+        <v>43617</v>
+      </c>
+      <c r="B2" s="31">
+        <v>51070.400000000001</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/$B$2*100</f>
+        <v>100</v>
+      </c>
+      <c r="D2" s="38">
+        <v>225.53700000000001</v>
+      </c>
+      <c r="E2" s="5">
+        <f>C2/F2*100</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2/$D$2*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="36">
+        <v>43647</v>
+      </c>
+      <c r="B3" s="32">
+        <v>54503.02</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C25" si="0">B3/$B$2*100</f>
+        <v>106.72134935304989</v>
+      </c>
+      <c r="D3" s="39">
+        <v>230.494</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E25" si="1">C3/F3*100</f>
+        <v>104.42620184924039</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F25" si="2">D3/$D$2*100</f>
+        <v>102.1978655386921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="36">
+        <v>43678</v>
+      </c>
+      <c r="B4" s="32">
+        <v>57947.28</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46549077352046</v>
+      </c>
+      <c r="D4" s="39">
+        <v>239.60769999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>106.80235398356348</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>106.23875461675911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="36">
+        <v>43709</v>
+      </c>
+      <c r="B5" s="32">
+        <v>57947.28</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46549077352046</v>
+      </c>
+      <c r="D5" s="39">
+        <v>253.71019999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>100.8657373356983</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>112.4916089156103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="36">
+        <v>43739</v>
+      </c>
+      <c r="B6" s="32">
+        <v>57947.28</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46549077352046</v>
+      </c>
+      <c r="D6" s="39">
+        <v>262.06610000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>97.649663167374484</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>116.19649990910584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="36">
+        <v>43770</v>
+      </c>
+      <c r="B7" s="32">
+        <v>57947.28</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>113.46549077352046</v>
+      </c>
+      <c r="D7" s="39">
+        <v>273.2158</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>93.664665047143984</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>121.140123350049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="36">
+        <v>43800</v>
+      </c>
+      <c r="B8" s="33">
+        <v>62947.28</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>123.2558977411573</v>
+      </c>
+      <c r="D8" s="39">
+        <v>283.44420000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>98.074913541527366</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>125.67525505792842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="36">
+        <v>43831</v>
+      </c>
+      <c r="B9" s="32">
+        <v>60402.48</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>118.27297221090886</v>
+      </c>
+      <c r="D9" s="39">
+        <v>289.82990000000001</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>92.036506011049084</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>128.50658650243639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="36">
+        <v>43862</v>
+      </c>
+      <c r="B10" s="32">
+        <v>62857.67</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>123.0804340674833</v>
+      </c>
+      <c r="D10" s="39">
+        <v>295.666</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>93.886993628885236</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
+        <v>131.09423287531536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="36">
+        <v>43891</v>
+      </c>
+      <c r="B11" s="32">
+        <v>62857.67</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>123.0804340674833</v>
+      </c>
+      <c r="D11" s="39">
+        <v>305.55149999999998</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>90.849470083694513</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>135.47732744516418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="36">
+        <v>43922</v>
+      </c>
+      <c r="B12" s="32">
+        <v>62857.67</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>123.0804340674833</v>
+      </c>
+      <c r="D12" s="39">
+        <v>310.12430000000001</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>89.509889609675795</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>137.50484399455522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="36">
+        <v>43952</v>
+      </c>
+      <c r="B13" s="32">
+        <v>62857.67</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>123.0804340674833</v>
+      </c>
+      <c r="D13" s="39">
+        <v>314.90870000000001</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>88.149968096397401</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>139.62618107006833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="36">
+        <v>43983</v>
+      </c>
+      <c r="B14" s="32">
+        <v>62857.67</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>123.0804340674833</v>
+      </c>
+      <c r="D14" s="39">
+        <v>321.97379999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>86.215685432410908</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>142.75874911876986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="36">
+        <v>44013</v>
+      </c>
+      <c r="B15" s="32">
+        <v>62857.67</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>123.0804340674833</v>
+      </c>
+      <c r="D15" s="39">
+        <v>328.20139999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>84.579748466270956</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>145.51998120042387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="36">
+        <v>44044</v>
+      </c>
+      <c r="B16" s="32">
+        <v>62857.67</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>123.0804340674833</v>
+      </c>
+      <c r="D16" s="39">
+        <v>337.06319999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>82.356044380632426</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>149.44918128732758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="36">
+        <v>44075</v>
+      </c>
+      <c r="B17" s="32">
+        <v>62857.67</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>123.0804340674833</v>
+      </c>
+      <c r="D17" s="39">
+        <v>346.6207</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>80.085210889822747</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>153.68684517396258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="36">
+        <v>44105</v>
+      </c>
+      <c r="B18" s="32">
+        <v>67256.08</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>131.69287884958803</v>
+      </c>
+      <c r="D18" s="39">
+        <v>359.65699999999998</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>82.583174572160516</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>159.46696107512292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="36">
+        <v>44136</v>
+      </c>
+      <c r="B19" s="32">
+        <v>67256.08</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>131.69287884958803</v>
+      </c>
+      <c r="D19" s="39">
+        <v>371.02109999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>80.053713433277878</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>164.50564652363028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="36">
+        <v>44166</v>
+      </c>
+      <c r="B20" s="32">
+        <v>67256.08</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>131.69287884958803</v>
+      </c>
+      <c r="D20" s="40">
+        <f>D19*1.03</f>
+        <v>382.15173299999998</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>77.722051876968806</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>169.44081591933917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36">
+        <v>44197</v>
+      </c>
+      <c r="B21" s="32">
+        <v>67256.08</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>131.69287884958803</v>
+      </c>
+      <c r="D21" s="40">
+        <f t="shared" ref="D21:D22" si="3">D20*1.03</f>
+        <v>393.61628499</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>75.458302793173601</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>174.52404039691936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="36">
+        <v>44228</v>
+      </c>
+      <c r="B22" s="32">
+        <v>69770.386800000007</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>136.61609621228737</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" si="3"/>
+        <v>405.42477353970003</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>75.999264234437518</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>179.75976160882695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="36">
+        <v>44256</v>
+      </c>
+      <c r="B23" s="32">
+        <v>73541.847000000009</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>144.00092225633637</v>
+      </c>
+      <c r="D23" s="40">
+        <f>D22*1.02</f>
+        <v>413.53326901049405</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>78.536694473554363</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="2"/>
+        <v>183.35495684100349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="36">
+        <v>44287</v>
+      </c>
+      <c r="B24" s="32">
+        <v>73541.846999999994</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>144.00092225633634</v>
+      </c>
+      <c r="D24" s="40">
+        <f>D23*1.02</f>
+        <v>421.80393439070394</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>76.996759287798383</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>187.02205597782356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="37">
+        <v>44317</v>
+      </c>
+      <c r="B25" s="34">
+        <v>78570.460599999991</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>153.847356981735</v>
+      </c>
+      <c r="D25" s="41">
+        <f>D24*1.02</f>
+        <v>430.24001307851802</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>80.648638659410793</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>190.76249709738002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/informe_perdida_salarial/Entrada/base_informe_perdida.xlsx
+++ b/informe_perdida_salarial/Entrada/base_informe_perdida.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Pablo\ATE_INDEC\observatorio_indec\informe_perdida_salarial\Entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDDC5B8-A177-44E9-93D1-9E648E55F933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B2F929-0B70-4F77-AB44-068392CD67C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D0" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>periodo</t>
   </si>
   <si>
     <t>perdida</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>y_privado_evol</t>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>y_b5_evol</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1821,37 +1821,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1048566"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42309</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="4">
-        <v>15393.979705635129</v>
+        <v>15364.936962263691</v>
       </c>
       <c r="E2" s="5">
         <f>D2/$D$2*100</f>
@@ -1877,7 +1877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>42339</v>
       </c>
@@ -1889,11 +1889,11 @@
         <v>100</v>
       </c>
       <c r="D3" s="8">
-        <v>15808.247677198706</v>
+        <v>15772.842647854051</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E55" si="1">D3/$D$2*100</f>
-        <v>102.69110379177602</v>
+        <f t="shared" ref="E3:E63" si="1">D3/$D$2*100</f>
+        <v>102.6547826821039</v>
       </c>
       <c r="F3" s="5">
         <v>103.91691848678423</v>
@@ -1903,7 +1903,7 @@
         <v>96.230721095446683</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>42370</v>
       </c>
@@ -1915,11 +1915,11 @@
         <v>100</v>
       </c>
       <c r="D4" s="11">
-        <v>16034.131835848939</v>
+        <v>15969.417945636807</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>104.15845767277109</v>
+        <v>103.93415856412378</v>
       </c>
       <c r="F4" s="5">
         <v>108.21634854454348</v>
@@ -1929,7 +1929,7 @@
         <v>92.407479410413202</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>42401</v>
       </c>
@@ -1941,11 +1941,11 @@
         <v>100</v>
       </c>
       <c r="D5" s="14">
-        <v>16207.291479272229</v>
+        <v>16125.610334874298</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="1"/>
-        <v>105.28331067852051</v>
+        <v>104.95070936170335</v>
       </c>
       <c r="F5" s="5">
         <v>112.51195348659296</v>
@@ -1955,7 +1955,7 @@
         <v>88.879445162167684</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>42430</v>
       </c>
@@ -1967,11 +1967,11 @@
         <v>100</v>
       </c>
       <c r="D6" s="14">
-        <v>16901.057746017777</v>
+        <v>16810.41826142609</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="1"/>
-        <v>109.790048247439</v>
+        <v>109.40766176075114</v>
       </c>
       <c r="F6" s="5">
         <v>116.24526641930917</v>
@@ -1981,7 +1981,7 @@
         <v>86.02500822639027</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>42461</v>
       </c>
@@ -1993,11 +1993,11 @@
         <v>100</v>
       </c>
       <c r="D7" s="14">
-        <v>17543.103707967126</v>
+        <v>17432.821270830787</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="1"/>
-        <v>113.96080833824465</v>
+        <v>113.45846269103363</v>
       </c>
       <c r="F7" s="5">
         <v>123.85342156600237</v>
@@ -2007,7 +2007,7 @@
         <v>80.740603477562615</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>42491</v>
       </c>
@@ -2019,11 +2019,11 @@
         <v>100</v>
       </c>
       <c r="D8" s="14">
-        <v>18021.327940628355</v>
+        <v>17976.341721115037</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>117.06737494289055</v>
+        <v>116.99587030695251</v>
       </c>
       <c r="F8" s="5">
         <v>129.04705890770799</v>
@@ -2033,7 +2033,7 @@
         <v>77.491111263154096</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>42522</v>
       </c>
@@ -2045,11 +2045,11 @@
         <v>109.4946565020327</v>
       </c>
       <c r="D9" s="14">
-        <v>18329.960758908972</v>
+        <v>18314.281704796762</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>119.07226792171939</v>
+        <v>119.19529347745888</v>
       </c>
       <c r="F9" s="5">
         <v>133.01643208237203</v>
@@ -2059,7 +2059,7 @@
         <v>82.316639221105262</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>42552</v>
       </c>
@@ -2071,11 +2071,11 @@
         <v>119.7439085300695</v>
       </c>
       <c r="D10" s="14">
-        <v>18760.056514037675</v>
+        <v>18832.988301915037</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>121.86618972331344</v>
+        <v>122.57120447788941</v>
       </c>
       <c r="F10" s="5">
         <v>135.73894998400223</v>
@@ -2085,7 +2085,7 @@
         <v>88.216321508441126</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>42583</v>
       </c>
@@ -2097,11 +2097,11 @@
         <v>134.05227610149851</v>
       </c>
       <c r="D11" s="14">
-        <v>19271.558684722007</v>
+        <v>19291.080735444102</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>125.18893134351379</v>
+        <v>125.55261881531324</v>
       </c>
       <c r="F11" s="5">
         <v>136.01308436633127</v>
@@ -2111,7 +2111,7 @@
         <v>98.558367914404755</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>42614</v>
       </c>
@@ -2123,11 +2123,11 @@
         <v>134.05227610149851</v>
       </c>
       <c r="D12" s="14">
-        <v>19509.297318048979</v>
+        <v>19565.858801353635</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>126.73329243709081</v>
+        <v>127.34096371112629</v>
       </c>
       <c r="F12" s="5">
         <v>137.57607030847464</v>
@@ -2137,7 +2137,7 @@
         <v>97.438657610240625</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>42644</v>
       </c>
@@ -2149,11 +2149,11 @@
         <v>134.05227610149851</v>
       </c>
       <c r="D13" s="14">
-        <v>20182.281853048069</v>
+        <v>20189.613980229144</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>131.10503092101732</v>
+        <v>131.40056499948466</v>
       </c>
       <c r="F13" s="5">
         <v>140.82194883225864</v>
@@ -2163,7 +2163,7 @@
         <v>95.192743186061222</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>42675</v>
       </c>
@@ -2175,11 +2175,11 @@
         <v>134.05227610149851</v>
       </c>
       <c r="D14" s="14">
-        <v>20690.621433979395</v>
+        <v>20628.786980418714</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>134.40722821276279</v>
+        <v>134.25884552005027</v>
       </c>
       <c r="F14" s="5">
         <v>143.10104387139992</v>
@@ -2189,7 +2189,7 @@
         <v>93.67665844699691</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>42705</v>
       </c>
@@ -2201,11 +2201,11 @@
         <v>150.24320741368027</v>
       </c>
       <c r="D15" s="17">
-        <v>21297.729746330522</v>
+        <v>21253.933594955586</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>138.35103172530663</v>
+        <v>138.32750272360556</v>
       </c>
       <c r="F15" s="5">
         <v>144.81478200160694</v>
@@ -2215,7 +2215,7 @@
         <v>103.74852990629995</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>42736</v>
       </c>
@@ -2227,11 +2227,11 @@
         <v>134.05227610149851</v>
       </c>
       <c r="D16" s="11">
-        <v>21923.253464602189</v>
+        <v>21781.788224550415</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>142.41446256147103</v>
+        <v>141.76295209050659</v>
       </c>
       <c r="F16" s="5">
         <v>147.11139962937042</v>
@@ -2241,7 +2241,7 @@
         <v>91.122969694549298</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>42767</v>
       </c>
@@ -2253,11 +2253,11 @@
         <v>134.05109857922128</v>
       </c>
       <c r="D17" s="14">
-        <v>22261.981058096091</v>
+        <v>22074.111577367672</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="1"/>
-        <v>144.6148525838764</v>
+        <v>143.66548741190232</v>
       </c>
       <c r="F17" s="5">
         <v>150.15251005140419</v>
@@ -2267,7 +2267,7 @@
         <v>89.276628498137882</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>42795</v>
       </c>
@@ -2279,11 +2279,11 @@
         <v>134.05109857922128</v>
       </c>
       <c r="D18" s="14">
-        <v>22554.208611388472</v>
+        <v>22342.406261783719</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="1"/>
-        <v>146.51317620700945</v>
+        <v>145.41163635527241</v>
       </c>
       <c r="F18" s="5">
         <v>153.71741553993775</v>
@@ -2293,7 +2293,7 @@
         <v>87.206188126675272</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>42826</v>
       </c>
@@ -2305,11 +2305,11 @@
         <v>134.05109857922128</v>
       </c>
       <c r="D19" s="14">
-        <v>22783.876886107999</v>
+        <v>22665.879292360634</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>148.0051118799885</v>
+        <v>147.51690389637179</v>
       </c>
       <c r="F19" s="5">
         <v>157.79988905934505</v>
@@ -2319,7 +2319,7 @@
         <v>84.95005882343024</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>42856</v>
       </c>
@@ -2331,11 +2331,11 @@
         <v>134.05109857922128</v>
       </c>
       <c r="D20" s="14">
-        <v>23101.564901647394</v>
+        <v>23036.98954439001</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>150.06882783657835</v>
+        <v>149.93220994637915</v>
       </c>
       <c r="F20" s="5">
         <v>160.06392336115817</v>
@@ -2345,7 +2345,7 @@
         <v>83.748477335993314</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>42887</v>
       </c>
@@ -2357,11 +2357,11 @@
         <v>140.74857965887952</v>
       </c>
       <c r="D21" s="14">
-        <v>23848.398926943628</v>
+        <v>23857.938585645348</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
-        <v>154.92029600515627</v>
+        <v>155.27521293605358</v>
       </c>
       <c r="F21" s="5">
         <v>161.97200292881135</v>
@@ -2371,7 +2371,7 @@
         <v>86.896856934429721</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>42917</v>
       </c>
@@ -2383,11 +2383,11 @@
         <v>147.44606073853782</v>
       </c>
       <c r="D22" s="14">
-        <v>24430.55806246827</v>
+        <v>24645.30513462433</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
-        <v>158.70202851784458</v>
+        <v>160.39965015901618</v>
       </c>
       <c r="F22" s="5">
         <v>164.77778933009247</v>
@@ -2397,7 +2397,7 @@
         <v>89.48175681806562</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>42948</v>
       </c>
@@ -2409,11 +2409,11 @@
         <v>160.89176139088215</v>
       </c>
       <c r="D23" s="14">
-        <v>24798.910249948633</v>
+        <v>24905.030865631681</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>161.09486126495756</v>
+        <v>162.09002957056364</v>
       </c>
       <c r="F23" s="5">
         <v>167.09004695431216</v>
@@ -2423,7 +2423,7 @@
         <v>96.29045195904169</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>42979</v>
       </c>
@@ -2435,11 +2435,11 @@
         <v>160.62385130248686</v>
       </c>
       <c r="D24" s="14">
-        <v>25168.750814840372</v>
+        <v>25275.800753129322</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="1"/>
-        <v>163.49736258017208</v>
+        <v>164.50312041765437</v>
       </c>
       <c r="F24" s="5">
         <v>170.26149068014735</v>
@@ -2449,7 +2449,7 @@
         <v>94.339507225526575</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43009</v>
       </c>
@@ -2461,11 +2461,11 @@
         <v>160.62385130248686</v>
       </c>
       <c r="D25" s="14">
-        <v>25712.003480837102</v>
+        <v>25711.962641137998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v>167.02635687784459</v>
+        <v>167.34180364219273</v>
       </c>
       <c r="F25" s="5">
         <v>172.84049713281397</v>
@@ -2475,7 +2475,7 @@
         <v>92.931838294274513</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43040</v>
       </c>
@@ -2487,11 +2487,11 @@
         <v>160.62385130248686</v>
       </c>
       <c r="D26" s="14">
-        <v>26090.483076165092</v>
+        <v>25997.026959344399</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="1"/>
-        <v>169.48497773200518</v>
+        <v>169.19709480873976</v>
       </c>
       <c r="F26" s="5">
         <v>175.21719733502434</v>
@@ -2501,7 +2501,7 @@
         <v>91.671282126129299</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43070</v>
       </c>
@@ -2513,11 +2513,11 @@
         <v>160.62385130248686</v>
       </c>
       <c r="D27" s="8">
-        <v>26460.204362147797</v>
+        <v>26420.318568056093</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>171.88670420594201</v>
+        <v>171.95201407558284</v>
       </c>
       <c r="F27" s="5">
         <v>180.72247608759741</v>
@@ -2527,7 +2527,7 @@
         <v>88.878735384652089</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>43101</v>
       </c>
@@ -2539,11 +2539,11 @@
         <v>160.62385130248686</v>
       </c>
       <c r="D28" s="11">
-        <v>27059.043813852379</v>
+        <v>26853.573419788045</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="1"/>
-        <v>175.77679281951458</v>
+        <v>174.77177736388026</v>
       </c>
       <c r="F28" s="5">
         <v>183.89840907167468</v>
@@ -2553,7 +2553,7 @@
         <v>87.343796019400827</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43132</v>
       </c>
@@ -2565,11 +2565,11 @@
         <v>160.62385130248686</v>
       </c>
       <c r="D29" s="14">
-        <v>27566.957916072311</v>
+        <v>27325.450635368547</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="1"/>
-        <v>179.07622618198681</v>
+        <v>177.84290753993912</v>
       </c>
       <c r="F29" s="5">
         <v>188.346974359982</v>
@@ -2579,7 +2579,7 @@
         <v>85.28082378190544</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>43160</v>
       </c>
@@ -2591,11 +2591,11 @@
         <v>162.2324644854375</v>
       </c>
       <c r="D30" s="14">
-        <v>28013.476279419927</v>
+        <v>27714.666052375662</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="1"/>
-        <v>181.97683000170059</v>
+        <v>180.37604788384701</v>
       </c>
       <c r="F30" s="5">
         <v>192.75629484236697</v>
@@ -2605,7 +2605,7 @@
         <v>84.164548098472551</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>43191</v>
       </c>
@@ -2617,11 +2617,11 @@
         <v>163.84107766838815</v>
       </c>
       <c r="D31" s="14">
-        <v>28736.502528609424</v>
+        <v>28674.114153321167</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="1"/>
-        <v>186.67364176198129</v>
+        <v>186.62044773593823</v>
       </c>
       <c r="F31" s="5">
         <v>198.03595216458154</v>
@@ -2631,7 +2631,7 @@
         <v>82.732996649126065</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>43221</v>
       </c>
@@ -2643,11 +2643,11 @@
         <v>165.44969085133883</v>
       </c>
       <c r="D32" s="14">
-        <v>29133.172195233699</v>
+        <v>29145.851523646543</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="1"/>
-        <v>189.25042615568211</v>
+        <v>189.69066775365755</v>
       </c>
       <c r="F32" s="5">
         <v>202.14594049256914</v>
@@ -2657,7 +2657,7 @@
         <v>81.846655168136181</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>43252</v>
       </c>
@@ -2669,11 +2669,11 @@
         <v>191.96368905954239</v>
       </c>
       <c r="D33" s="14">
-        <v>29788.989474373317</v>
+        <v>29781.077735284853</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="1"/>
-        <v>193.5106453561761</v>
+        <v>193.82492624881721</v>
       </c>
       <c r="F33" s="5">
         <v>209.69947952177293</v>
@@ -2683,7 +2683,7 @@
         <v>91.542282077820303</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>43282</v>
       </c>
@@ -2695,11 +2695,11 @@
         <v>182.37549411287927</v>
       </c>
       <c r="D34" s="14">
-        <v>30211.890315382068</v>
+        <v>30407.083305589051</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="1"/>
-        <v>196.25782866481686</v>
+        <v>197.89917381547932</v>
       </c>
       <c r="F34" s="5">
         <v>216.20354582581118</v>
@@ -2709,7 +2709,7 @@
         <v>84.35360919557435</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>43313</v>
       </c>
@@ -2721,11 +2721,11 @@
         <v>192.39594182647443</v>
       </c>
       <c r="D35" s="14">
-        <v>31260.638699961859</v>
+        <v>31428.070651064554</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="1"/>
-        <v>203.07054639365654</v>
+        <v>204.54409105778919</v>
       </c>
       <c r="F35" s="5">
         <v>224.61265058708042</v>
@@ -2735,7 +2735,7 @@
         <v>85.656770143444859</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>43344</v>
       </c>
@@ -2747,11 +2747,11 @@
         <v>192.40203750604707</v>
       </c>
       <c r="D36" s="14">
-        <v>32259.77297044943</v>
+        <v>32409.476536664079</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="1"/>
-        <v>209.56096855604142</v>
+        <v>210.93139930389432</v>
       </c>
       <c r="F36" s="5">
         <v>239.28948392816133</v>
@@ -2761,7 +2761,7 @@
         <v>80.405554956944684</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>43374</v>
       </c>
@@ -2773,11 +2773,11 @@
         <v>212.02740879354013</v>
       </c>
       <c r="D37" s="14">
-        <v>33318.500420697739</v>
+        <v>33280.552524044753</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="1"/>
-        <v>216.43851075431226</v>
+        <v>216.60064473926474</v>
       </c>
       <c r="F37" s="5">
         <v>252.1910328566845</v>
@@ -2787,7 +2787,7 @@
         <v>84.074126820374047</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>43405</v>
       </c>
@@ -2799,11 +2799,11 @@
         <v>231.65278008103317</v>
       </c>
       <c r="D38" s="14">
-        <v>35079.535155733851</v>
+        <v>35067.723832035161</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="1"/>
-        <v>227.87827336742956</v>
+        <v>228.23213605211362</v>
       </c>
       <c r="F38" s="5">
         <v>260.1435366103027</v>
@@ -2813,7 +2813,7 @@
         <v>89.048062888470326</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>43435</v>
       </c>
@@ -2825,11 +2825,11 @@
         <v>241.46546572477968</v>
       </c>
       <c r="D39" s="8">
-        <v>35545.019295151833</v>
+        <v>35521.242878506418</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="1"/>
-        <v>230.90207974056378</v>
+        <v>231.18378530121305</v>
       </c>
       <c r="F39" s="5">
         <v>266.82876620662489</v>
@@ -2839,7 +2839,7 @@
         <v>90.494540434143232</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>43466</v>
       </c>
@@ -2851,11 +2851,11 @@
         <v>200.72329305880058</v>
       </c>
       <c r="D40" s="11">
-        <v>36931.250142868113</v>
+        <v>36546.151781471468</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="1"/>
-        <v>239.90709906775461</v>
+        <v>237.85422531331483</v>
       </c>
       <c r="F40" s="5">
         <v>274.58345296802895</v>
@@ -2865,7 +2865,7 @@
         <v>73.101015698193493</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <v>43497</v>
       </c>
@@ -2877,11 +2877,11 @@
         <v>209.09518206947578</v>
       </c>
       <c r="D41" s="14">
-        <v>38119.918224148074</v>
+        <v>37646.613044951577</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="1"/>
-        <v>247.62874158002091</v>
+        <v>245.01638462566891</v>
       </c>
       <c r="F41" s="5">
         <v>284.92322840294366</v>
@@ -2891,7 +2891,7 @@
         <v>73.38649896728306</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22">
         <v>43525</v>
       </c>
@@ -2903,11 +2903,11 @@
         <v>209.09518206947578</v>
       </c>
       <c r="D42" s="14">
-        <v>39841.399981430295</v>
+        <v>39327.964228807548</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="1"/>
-        <v>258.81156623095933</v>
+        <v>255.95916420221633</v>
       </c>
       <c r="F42" s="5">
         <v>298.31462013788206</v>
@@ -2917,7 +2917,7 @@
         <v>70.092167112973286</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22">
         <v>43556</v>
       </c>
@@ -2929,11 +2929,11 @@
         <v>209.09518206947578</v>
       </c>
       <c r="D43" s="14">
-        <v>40374.557165551225</v>
+        <v>40287.158439865925</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="1"/>
-        <v>262.27497981416519</v>
+        <v>262.20191165646332</v>
       </c>
       <c r="F43" s="5">
         <v>308.53035490571767</v>
@@ -2943,7 +2943,7 @@
         <v>67.771348505845467</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22">
         <v>43586</v>
       </c>
@@ -2955,11 +2955,11 @@
         <v>209.09518206947578</v>
       </c>
       <c r="D44" s="14">
-        <v>41979.295303666011</v>
+        <v>42123.639965655428</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="1"/>
-        <v>272.69943254699137</v>
+        <v>274.15432988180265</v>
       </c>
       <c r="F44" s="5">
         <v>317.96851350789035</v>
@@ -2969,7 +2969,7 @@
         <v>65.759713049162372</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22">
         <v>43617</v>
       </c>
@@ -2981,11 +2981,11 @@
         <v>222.69320932715397</v>
       </c>
       <c r="D45" s="14">
-        <v>43148.697087955174</v>
+        <v>43221.579675807974</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="1"/>
-        <v>280.29592030811983</v>
+        <v>281.30007810614671</v>
       </c>
       <c r="F45" s="5">
         <v>326.61091488296432</v>
@@ -2995,7 +2995,7 @@
         <v>68.183027320734951</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
         <v>43647</v>
       </c>
@@ -3007,11 +3007,11 @@
         <v>237.66118562755562</v>
       </c>
       <c r="D46" s="14">
-        <v>44438.42786681353</v>
+        <v>44929.452645106714</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="1"/>
-        <v>288.6740707508298</v>
+        <v>292.41547007614491</v>
       </c>
       <c r="F46" s="5">
         <v>333.78938362678394</v>
@@ -3021,7 +3021,7 @@
         <v>71.20094205670992</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22">
         <v>43678</v>
       </c>
@@ -3033,11 +3033,11 @@
         <v>301.74341985832444</v>
       </c>
       <c r="D47" s="14">
-        <v>46258.870802588688</v>
+        <v>46578.316626899134</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="1"/>
-        <v>300.49975176760262</v>
+        <v>303.14681239041562</v>
       </c>
       <c r="F47" s="5">
         <v>346.98736841406441</v>
@@ -3047,7 +3047,7 @@
         <v>86.960923458818883</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22">
         <v>43709</v>
       </c>
@@ -3059,11 +3059,11 @@
         <v>252.67999163959183</v>
       </c>
       <c r="D48" s="14">
-        <v>47853.294116952071</v>
+        <v>48077.966780831164</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="1"/>
-        <v>310.85719893105266</v>
+        <v>312.90702265105756</v>
       </c>
       <c r="F48" s="5">
         <v>367.40987304584098</v>
@@ -3073,7 +3073,7 @@
         <v>68.773326515388845</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22">
         <v>43739</v>
       </c>
@@ -3085,11 +3085,11 @@
         <v>252.67999163959183</v>
       </c>
       <c r="D49" s="14">
-        <v>50315.687659427698</v>
+        <v>50465.625723047706</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="1"/>
-        <v>326.85302060654988</v>
+        <v>328.44668251481511</v>
       </c>
       <c r="F49" s="5">
         <v>379.51045141511332</v>
@@ -3099,7 +3099,7 @@
         <v>66.580509363418628</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>43770</v>
       </c>
@@ -3111,11 +3111,11 @@
         <v>252.67999163959183</v>
       </c>
       <c r="D50" s="26">
-        <v>50951.752858164989</v>
+        <v>51136.610432302121</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="1"/>
-        <v>330.9849293845279</v>
+        <v>332.81366892616427</v>
       </c>
       <c r="F50" s="5">
         <v>395.65686516394646</v>
@@ -3125,7 +3125,7 @@
         <v>63.863416482079749</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27">
         <v>43800</v>
       </c>
@@ -3137,11 +3137,11 @@
         <v>301.74341985832444</v>
       </c>
       <c r="D51" s="8">
-        <v>51739.906336827458</v>
+        <v>52142.776901559504</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="1"/>
-        <v>336.10481062208703</v>
+        <v>339.36212709249799</v>
       </c>
       <c r="F51" s="5">
         <v>410.46910032619888</v>
@@ -3151,7 +3151,7 @@
         <v>73.511847692927347</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>43831</v>
       </c>
@@ -3163,11 +3163,11 @@
         <v>263.38582793063216</v>
       </c>
       <c r="D52" s="11">
-        <v>55449.10535908593</v>
+        <v>54656.446513524177</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="1"/>
-        <v>360.19993802374699</v>
+        <v>355.72190532092969</v>
       </c>
       <c r="F52" s="5">
         <v>419.71653786047546</v>
@@ -3177,7 +3177,7 @@
         <v>62.753264208566485</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
         <v>43862</v>
       </c>
@@ -3189,11 +3189,11 @@
         <v>303.5298192797685</v>
       </c>
       <c r="D53" s="11">
-        <v>59156.902812116597</v>
+        <v>56508.94811454921</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="1"/>
-        <v>384.28596076725751</v>
+        <v>367.77858739892832</v>
       </c>
       <c r="F53" s="5">
         <v>428.16807335287126</v>
@@ -3203,7 +3203,7 @@
         <v>70.890343808894144</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
         <v>43891</v>
       </c>
@@ -3215,11 +3215,11 @@
         <v>313.34250492351504</v>
       </c>
       <c r="D54" s="11">
-        <v>59798.742083694502</v>
+        <v>58266.126594474932</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="1"/>
-        <v>388.45537818790643</v>
+        <v>379.21487564561198</v>
       </c>
       <c r="F54" s="5">
         <v>442.48373862764009</v>
@@ -3229,7 +3229,7 @@
         <v>70.814467870693818</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
         <v>43922</v>
       </c>
@@ -3241,11 +3241,11 @@
         <v>313.34250492351504</v>
       </c>
       <c r="D55" s="11">
-        <v>61697.53918599234</v>
+        <v>56648.449915614772</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="1"/>
-        <v>400.79005147322169</v>
+        <v>368.68651042788821</v>
       </c>
       <c r="F55" s="5">
         <v>449.10582897900957</v>
@@ -3255,7 +3255,7 @@
         <v>69.770304615253636</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
         <v>43952</v>
       </c>
@@ -3266,11 +3266,12 @@
         <f t="shared" si="0"/>
         <v>313.34250492351504</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>2</v>
+      <c r="D56" s="11">
+        <v>57254.957473132585</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="1"/>
+        <v>372.63385859473976</v>
       </c>
       <c r="F56" s="5">
         <v>455.84241641369471</v>
@@ -3280,7 +3281,7 @@
         <v>68.739216369708018</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
         <v>43983</v>
       </c>
@@ -3291,11 +3292,12 @@
         <f t="shared" si="0"/>
         <v>313.34250492351504</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>2</v>
+      <c r="D57" s="11">
+        <v>59968.082656561528</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="1"/>
+        <v>390.29175846177066</v>
       </c>
       <c r="F57" s="5">
         <v>466.26565657228991</v>
@@ -3305,7 +3307,7 @@
         <v>67.202570145745739</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
         <v>44013</v>
       </c>
@@ -3316,11 +3318,12 @@
         <f t="shared" si="0"/>
         <v>313.34250492351504</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>2</v>
+      <c r="D58" s="11">
+        <v>60812.384134416257</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="1"/>
+        <v>395.78674669327683</v>
       </c>
       <c r="F58" s="5">
         <v>475.284141936222</v>
@@ -3330,7 +3333,7 @@
         <v>65.927405792882993</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
         <v>44044</v>
       </c>
@@ -3341,11 +3344,12 @@
         <f t="shared" si="0"/>
         <v>313.34250492351504</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>2</v>
+      <c r="D59" s="11">
+        <v>63011.221043660975</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="1"/>
+        <v>410.09749144052216</v>
       </c>
       <c r="F59" s="5">
         <v>488.11733828764051</v>
@@ -3355,7 +3359,7 @@
         <v>64.194094400077802</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
         <v>44075</v>
       </c>
@@ -3366,11 +3370,12 @@
         <f t="shared" si="0"/>
         <v>313.34250492351504</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>2</v>
+      <c r="D60" s="11">
+        <v>65156.893558627475</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="1"/>
+        <v>424.06222504298523</v>
       </c>
       <c r="F60" s="5">
         <v>501.92803441756985</v>
@@ -3380,7 +3385,7 @@
         <v>62.427775186359781</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
         <v>44105</v>
       </c>
@@ -3391,11 +3396,12 @@
         <f t="shared" si="0"/>
         <v>332.5126657239947</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>2</v>
+      <c r="D61" s="11">
+        <v>67649.930780780778</v>
+      </c>
+      <c r="E61" s="5">
+        <f t="shared" si="1"/>
+        <v>440.28772097750294</v>
       </c>
       <c r="F61" s="5">
         <v>520.89877085978026</v>
@@ -3405,7 +3411,7 @@
         <v>63.834411660284594</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
         <v>44136</v>
       </c>
@@ -3416,11 +3422,12 @@
         <f t="shared" si="0"/>
         <v>332.5126657239947</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>2</v>
+      <c r="D62" s="11">
+        <v>68716.721727032884</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="1"/>
+        <v>447.23074292983603</v>
       </c>
       <c r="F62" s="5">
         <v>537.26284122596178</v>
@@ -3430,8 +3437,59 @@
         <v>61.890129040982131</v>
       </c>
     </row>
-    <row r="1048565" spans="4:4" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="1048566" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="29">
+        <v>44166</v>
+      </c>
+      <c r="B63" s="30">
+        <v>37886</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" ref="C63:C64" si="4">B63/$B$2*100</f>
+        <v>371.76340829898078</v>
+      </c>
+      <c r="D63" s="11">
+        <v>70239.829961049647</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="1"/>
+        <v>457.14362599442336</v>
+      </c>
+      <c r="F63" s="5">
+        <v>558.84024374420119</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" ref="G63:G64" si="5">C63/F63*100</f>
+        <v>66.524093864139928</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="29">
+        <v>44197</v>
+      </c>
+      <c r="B64" s="30">
+        <v>33886</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="4"/>
+        <v>332.5126657239947</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="5">
+        <v>581.445831214652</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" si="5"/>
+        <v>57.187212956599772</v>
+      </c>
+    </row>
+    <row r="1048565" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1048566" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D1048566" s="11"/>
     </row>
   </sheetData>
@@ -3443,38 +3501,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94470D22-5E2D-4DCA-827B-D838B6EA73C8}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.15234375" customWidth="1"/>
-    <col min="4" max="4" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.15234375" customWidth="1"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" s="42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
         <v>43617</v>
       </c>
@@ -3497,7 +3555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
         <v>43647</v>
       </c>
@@ -3520,7 +3578,7 @@
         <v>102.1978655386921</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>43678</v>
       </c>
@@ -3543,7 +3601,7 @@
         <v>106.23875461675911</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <v>43709</v>
       </c>
@@ -3566,7 +3624,7 @@
         <v>112.4916089156103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>43739</v>
       </c>
@@ -3589,7 +3647,7 @@
         <v>116.19649990910584</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>43770</v>
       </c>
@@ -3612,7 +3670,7 @@
         <v>121.140123350049</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <v>43800</v>
       </c>
@@ -3635,7 +3693,7 @@
         <v>125.67525505792842</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <v>43831</v>
       </c>
@@ -3658,7 +3716,7 @@
         <v>128.50658650243639</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>43862</v>
       </c>
@@ -3681,7 +3739,7 @@
         <v>131.09423287531536</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36">
         <v>43891</v>
       </c>
@@ -3704,7 +3762,7 @@
         <v>135.47732744516418</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>43922</v>
       </c>
@@ -3727,7 +3785,7 @@
         <v>137.50484399455522</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36">
         <v>43952</v>
       </c>
@@ -3750,7 +3808,7 @@
         <v>139.62618107006833</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>43983</v>
       </c>
@@ -3773,7 +3831,7 @@
         <v>142.75874911876986</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>44013</v>
       </c>
@@ -3796,7 +3854,7 @@
         <v>145.51998120042387</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>44044</v>
       </c>
@@ -3819,7 +3877,7 @@
         <v>149.44918128732758</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>44075</v>
       </c>
@@ -3842,7 +3900,7 @@
         <v>153.68684517396258</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>44105</v>
       </c>
@@ -3865,7 +3923,7 @@
         <v>159.46696107512292</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>44136</v>
       </c>
@@ -3888,7 +3946,7 @@
         <v>164.50564652363028</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>44166</v>
       </c>
@@ -3912,7 +3970,7 @@
         <v>169.44081591933917</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>44197</v>
       </c>
@@ -3936,7 +3994,7 @@
         <v>174.52404039691936</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>44228</v>
       </c>
@@ -3960,7 +4018,7 @@
         <v>179.75976160882695</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>44256</v>
       </c>
@@ -3984,7 +4042,7 @@
         <v>183.35495684100349</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
         <v>44287</v>
       </c>
@@ -4008,7 +4066,7 @@
         <v>187.02205597782356</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37">
         <v>44317</v>
       </c>
@@ -4046,34 +4104,34 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.53515625" customWidth="1"/>
+    <col min="1" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="20.53515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" s="42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
         <v>43617</v>
       </c>
@@ -4096,7 +4154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
         <v>43647</v>
       </c>
@@ -4119,7 +4177,7 @@
         <v>102.1978655386921</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>43678</v>
       </c>
@@ -4142,7 +4200,7 @@
         <v>106.23875461675911</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <v>43709</v>
       </c>
@@ -4165,7 +4223,7 @@
         <v>112.4916089156103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>43739</v>
       </c>
@@ -4188,7 +4246,7 @@
         <v>116.19649990910584</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>43770</v>
       </c>
@@ -4211,7 +4269,7 @@
         <v>121.140123350049</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <v>43800</v>
       </c>
@@ -4234,7 +4292,7 @@
         <v>125.67525505792842</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <v>43831</v>
       </c>
@@ -4257,7 +4315,7 @@
         <v>128.50658650243639</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>43862</v>
       </c>
@@ -4280,7 +4338,7 @@
         <v>131.09423287531536</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36">
         <v>43891</v>
       </c>
@@ -4303,7 +4361,7 @@
         <v>135.47732744516418</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>43922</v>
       </c>
@@ -4326,7 +4384,7 @@
         <v>137.50484399455522</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36">
         <v>43952</v>
       </c>
@@ -4349,7 +4407,7 @@
         <v>139.62618107006833</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>43983</v>
       </c>
@@ -4372,7 +4430,7 @@
         <v>142.75874911876986</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>44013</v>
       </c>
@@ -4395,7 +4453,7 @@
         <v>145.51998120042387</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>44044</v>
       </c>
@@ -4418,7 +4476,7 @@
         <v>149.44918128732758</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>44075</v>
       </c>
@@ -4441,7 +4499,7 @@
         <v>153.68684517396258</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>44105</v>
       </c>
@@ -4464,7 +4522,7 @@
         <v>159.46696107512292</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>44136</v>
       </c>
@@ -4487,7 +4545,7 @@
         <v>164.50564652363028</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>44166</v>
       </c>
@@ -4511,7 +4569,7 @@
         <v>169.44081591933917</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>44197</v>
       </c>
@@ -4535,7 +4593,7 @@
         <v>174.52404039691936</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>44228</v>
       </c>
@@ -4559,7 +4617,7 @@
         <v>179.75976160882695</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>44256</v>
       </c>
@@ -4583,7 +4641,7 @@
         <v>183.35495684100349</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
         <v>44287</v>
       </c>
@@ -4607,7 +4665,7 @@
         <v>187.02205597782356</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37">
         <v>44317</v>
       </c>
@@ -4631,28 +4689,28 @@
         <v>190.76249709738002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
     </row>
   </sheetData>
@@ -4668,34 +4726,34 @@
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.15234375" customWidth="1"/>
-    <col min="4" max="4" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.15234375" customWidth="1"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" s="42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
         <v>43617</v>
       </c>
@@ -4718,7 +4776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
         <v>43647</v>
       </c>
@@ -4741,7 +4799,7 @@
         <v>102.1978655386921</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>43678</v>
       </c>
@@ -4764,7 +4822,7 @@
         <v>106.23875461675911</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <v>43709</v>
       </c>
@@ -4787,7 +4845,7 @@
         <v>112.4916089156103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>43739</v>
       </c>
@@ -4810,7 +4868,7 @@
         <v>116.19649990910584</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>43770</v>
       </c>
@@ -4833,7 +4891,7 @@
         <v>121.140123350049</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <v>43800</v>
       </c>
@@ -4856,7 +4914,7 @@
         <v>125.67525505792842</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <v>43831</v>
       </c>
@@ -4879,7 +4937,7 @@
         <v>128.50658650243639</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>43862</v>
       </c>
@@ -4902,7 +4960,7 @@
         <v>131.09423287531536</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36">
         <v>43891</v>
       </c>
@@ -4925,7 +4983,7 @@
         <v>135.47732744516418</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>43922</v>
       </c>
@@ -4948,7 +5006,7 @@
         <v>137.50484399455522</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36">
         <v>43952</v>
       </c>
@@ -4971,7 +5029,7 @@
         <v>139.62618107006833</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>43983</v>
       </c>
@@ -4994,7 +5052,7 @@
         <v>142.75874911876986</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>44013</v>
       </c>
@@ -5017,7 +5075,7 @@
         <v>145.51998120042387</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>44044</v>
       </c>
@@ -5040,7 +5098,7 @@
         <v>149.44918128732758</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>44075</v>
       </c>
@@ -5063,7 +5121,7 @@
         <v>153.68684517396258</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>44105</v>
       </c>
@@ -5086,7 +5144,7 @@
         <v>159.46696107512292</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>44136</v>
       </c>
@@ -5109,7 +5167,7 @@
         <v>164.50564652363028</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>44166</v>
       </c>
@@ -5133,7 +5191,7 @@
         <v>169.44081591933917</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>44197</v>
       </c>
@@ -5157,7 +5215,7 @@
         <v>174.52404039691936</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>44228</v>
       </c>
@@ -5181,7 +5239,7 @@
         <v>179.75976160882695</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>44256</v>
       </c>
@@ -5205,7 +5263,7 @@
         <v>183.35495684100349</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
         <v>44287</v>
       </c>
@@ -5229,7 +5287,7 @@
         <v>187.02205597782356</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37">
         <v>44317</v>
       </c>
@@ -5266,34 +5324,34 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.15234375" customWidth="1"/>
-    <col min="4" max="4" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.15234375" customWidth="1"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" s="42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
         <v>43617</v>
       </c>
@@ -5316,7 +5374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
         <v>43647</v>
       </c>
@@ -5339,7 +5397,7 @@
         <v>102.1978655386921</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>43678</v>
       </c>
@@ -5362,7 +5420,7 @@
         <v>106.23875461675911</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <v>43709</v>
       </c>
@@ -5385,7 +5443,7 @@
         <v>112.4916089156103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>43739</v>
       </c>
@@ -5408,7 +5466,7 @@
         <v>116.19649990910584</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>43770</v>
       </c>
@@ -5431,7 +5489,7 @@
         <v>121.140123350049</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <v>43800</v>
       </c>
@@ -5454,7 +5512,7 @@
         <v>125.67525505792842</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <v>43831</v>
       </c>
@@ -5477,7 +5535,7 @@
         <v>128.50658650243639</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
         <v>43862</v>
       </c>
@@ -5500,7 +5558,7 @@
         <v>131.09423287531536</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36">
         <v>43891</v>
       </c>
@@ -5523,7 +5581,7 @@
         <v>135.47732744516418</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>43922</v>
       </c>
@@ -5546,7 +5604,7 @@
         <v>137.50484399455522</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36">
         <v>43952</v>
       </c>
@@ -5569,7 +5627,7 @@
         <v>139.62618107006833</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>43983</v>
       </c>
@@ -5592,7 +5650,7 @@
         <v>142.75874911876986</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>44013</v>
       </c>
@@ -5615,7 +5673,7 @@
         <v>145.51998120042387</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>44044</v>
       </c>
@@ -5638,7 +5696,7 @@
         <v>149.44918128732758</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>44075</v>
       </c>
@@ -5661,7 +5719,7 @@
         <v>153.68684517396258</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>44105</v>
       </c>
@@ -5684,7 +5742,7 @@
         <v>159.46696107512292</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>44136</v>
       </c>
@@ -5707,7 +5765,7 @@
         <v>164.50564652363028</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>44166</v>
       </c>
@@ -5731,7 +5789,7 @@
         <v>169.44081591933917</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>44197</v>
       </c>
@@ -5755,7 +5813,7 @@
         <v>174.52404039691936</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>44228</v>
       </c>
@@ -5779,7 +5837,7 @@
         <v>179.75976160882695</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>44256</v>
       </c>
@@ -5803,7 +5861,7 @@
         <v>183.35495684100349</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
         <v>44287</v>
       </c>
@@ -5827,7 +5885,7 @@
         <v>187.02205597782356</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="37">
         <v>44317</v>
       </c>

--- a/informe_perdida_salarial/Entrada/base_informe_perdida.xlsx
+++ b/informe_perdida_salarial/Entrada/base_informe_perdida.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Pablo\ATE_INDEC\observatorio_indec\informe_perdida_salarial\Entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B2F929-0B70-4F77-AB44-068392CD67C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C341D54D-30C3-4D64-A90A-719C567BEB63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>periodo</t>
   </si>
@@ -1123,7 +1123,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1230,6 +1230,12 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="310">
     <cellStyle name="20% - Énfasis1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1823,7 +1829,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,7 +3469,7 @@
         <v>66.524093864139928</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>44197</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>33886</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="4"/>
+        <f>B64/$B$2*100</f>
         <v>332.5126657239947</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -3484,8 +3490,33 @@
         <v>581.445831214652</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="5"/>
+        <f>C64/F64*100</f>
         <v>57.187212956599772</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="29">
+        <v>44228</v>
+      </c>
+      <c r="B65" s="48">
+        <v>35003.82</v>
+      </c>
+      <c r="C65" s="3">
+        <f>B65/$B$2*100</f>
+        <v>343.48148199028742</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="49">
+        <v>602.22602835797284</v>
+      </c>
+      <c r="G65" s="5">
+        <f>C65/F65*100</f>
+        <v>57.035309969385196</v>
       </c>
     </row>
     <row r="1048565" spans="4:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
